--- a/biology/Médecine/Jan_Harusewicz/Jan_Harusewicz.xlsx
+++ b/biology/Médecine/Jan_Harusewicz/Jan_Harusewicz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jan Harusewicz (1863-1929) est un médecin et un homme politique polonais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Szimon Harusewicz, fonctionnaire fiscal et de Leokadia Zielińska, tous deux issus de familles catholiques de la noblesse polonaise.
 Jan clôture ses études secondaires au gymnasium de Łomża avec une médaille d'or (1881). Il entre alors à l'Université Impériale de Varsovie. Il en est expulsé en 1883 pour un an pour avoir pris part à des débats politiques. Il sort diplômé de médecine en 1887. Il devient membre la même année de l'Association de la Jeunesse Polonaise "Zet" (en), organisation étudiante clandestine pro-polonaise par la suite intégrée à la Ligue Polonaise (Liga Polska (pl)) dans laquelle Harusewicz est admis en 1888. Il devient membre du Conseil suprême de la nouvelle Ligue Nationale (en) polonaise créée en 1893 à partir de la Liga Polska.
